--- a/1. Power Submodule/Power Budget.xlsx
+++ b/1. Power Submodule/Power Budget.xlsx
@@ -1,28 +1,201 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. UNIVERSITY\University\EEE4113F\EEE4113F_Group22\1. Power Submodule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4FDD39-8411-45F1-8964-B0D2F46FFE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Typ. Voltage</t>
+  </si>
+  <si>
+    <t>Min Power (W)</t>
+  </si>
+  <si>
+    <t>Typical Power (W)</t>
+  </si>
+  <si>
+    <t>Mode of Operation</t>
+  </si>
+  <si>
+    <t>Max Current (mA)</t>
+  </si>
+  <si>
+    <t>Max Current Draw (mA)</t>
+  </si>
+  <si>
+    <t>Typ. Current (mA)</t>
+  </si>
+  <si>
+    <t>Measuring</t>
+  </si>
+  <si>
+    <t>Idle State (Periodic Capture Mode)</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Typical Power (mW)</t>
+  </si>
+  <si>
+    <t>Max Power (mW)</t>
+  </si>
+  <si>
+    <t>Temp/Humidity Sensor (On Board)</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Zero W</t>
+  </si>
+  <si>
+    <t>Reading sensor data and storing it</t>
+  </si>
+  <si>
+    <t>Turn WiFi on and transmit sensor data</t>
+  </si>
+  <si>
+    <t>ESP32 S</t>
+  </si>
+  <si>
+    <t>Sleep Mode</t>
+  </si>
+  <si>
+    <t>HX711 Amplifier</t>
+  </si>
+  <si>
+    <t>Weighing bird</t>
+  </si>
+  <si>
+    <t>Reading sensor data and storing it (BT/WiFi off)</t>
+  </si>
+  <si>
+    <t>Idle State</t>
+  </si>
+  <si>
+    <t>https://lastminuteengineers.com/esp32-sleep-modes-power-consumption/#:~:text=Since%20everything%20is%20always%20active,and%20Bluetooth%20are%20used%20simultaneously.</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://www.tomshardware.com/reviews/raspberry-pi-zero-2-w-review#:~:text=Power%20Consumption%20of%20Raspberry%20Pi%20Zero%202%20W&amp;text=The%20Raspberry%20Pi%20Zero%20W%20draws%20around%20260mA%20at,370mA%20when%20stressed%20using%20Stressberry.</t>
+  </si>
+  <si>
+    <t>Power Consumption using Pi for 12hrs</t>
+  </si>
+  <si>
+    <t>Power Consumption using ESP32 for 12hrs</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Just Pi</t>
+  </si>
+  <si>
+    <t>Just ESP32</t>
+  </si>
+  <si>
+    <t>For 12hrs</t>
+  </si>
+  <si>
+    <t>Sensors + amplifier</t>
+  </si>
+  <si>
+    <t>From Communica Website</t>
+  </si>
+  <si>
+    <t>Power Budget (Worst Case Scenario)</t>
+  </si>
+  <si>
+    <t>Power Budget (Various Operating States)</t>
+  </si>
+  <si>
+    <t>Sensor circuitry power draw is negligible at this point, just use microcontroller values to determine system requirements</t>
+  </si>
+  <si>
+    <t>this means</t>
+  </si>
+  <si>
+    <t>Wh</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ESP32 uses </t>
+  </si>
+  <si>
+    <t>the amount of power when compared to the raspberry pi</t>
+  </si>
+  <si>
+    <t>However, this isnt based off of actual measurements, rather values found online. Could very well be lower. Some sites say max current comparable to that of the ESP32, however no sleep mode.</t>
+  </si>
+  <si>
+    <t>http://raspi.tv/2017/how-much-power-does-pi-zero-w-use</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -45,12 +218,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +456,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60961</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91F228F-D620-D90C-1A59-A4497FD3EF18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60961" y="8542022"/>
+          <a:ext cx="4800599" cy="1155398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +769,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7">
+        <f>C3*B3</f>
+        <v>1.9799999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16">
+        <v>370</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F6" si="0">C4*B4</f>
+        <v>1850</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="16">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16">
+        <v>240</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="17">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="3">
+        <f>D11*B11</f>
+        <v>1.9799999999999998</v>
+      </c>
+      <c r="G11" s="14">
+        <f>E11*B11</f>
+        <v>4.9499999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11">
+        <f>E12*B11</f>
+        <v>0.14849999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="21">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9">
+        <v>260</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10">
+        <f>D15*B13</f>
+        <v>1300</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="21">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="23">
+        <v>5</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6">
+        <f>D19*B19</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10">
+        <f>D20*B19</f>
+        <v>8.5</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1">
+        <f>F4/1000</f>
+        <v>1.85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B25*12</f>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1">
+        <f>B26</f>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="1">
+        <f>E26/5</f>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <f>F5/1000</f>
+        <v>1.2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <f>B29*12</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1">
+        <f>B30</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="1">
+        <f>E30/5</f>
+        <v>2.88</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <f>(F3+F6)/1000</f>
+        <v>1.048E-2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <f>B33*12</f>
+        <v>0.12575999999999998</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="26">
+        <f>E30/E26</f>
+        <v>0.64864864864864846</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1. Power Submodule/Power Budget.xlsx
+++ b/1. Power Submodule/Power Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. UNIVERSITY\University\EEE4113F\EEE4113F_Group22\1. Power Submodule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4FDD39-8411-45F1-8964-B0D2F46FFE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC92C781-7CD1-444D-B388-7C7F2E81044A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Component</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>http://raspi.tv/2017/how-much-power-does-pi-zero-w-use</t>
+  </si>
+  <si>
+    <t>mAh</t>
   </si>
 </sst>
 </file>
@@ -367,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -378,13 +381,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -403,7 +402,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -415,31 +414,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +787,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -803,7 +801,7 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -812,86 +810,80 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>3.3</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>0.6</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <f>C3*B3</f>
         <v>1.9799999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>370</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <f t="shared" ref="F4:F6" si="0">C4*B4</f>
         <v>1850</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>5</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>240</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>5</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>1.7</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -911,7 +903,7 @@
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -919,170 +911,168 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="23">
         <v>3.3</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.6</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>1.5</v>
       </c>
       <c r="F11" s="3">
         <f>D11*B11</f>
         <v>1.9799999999999998</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <f>E11*B11</f>
         <v>4.9499999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <f>E12*B11</f>
         <v>0.14849999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="23">
         <v>5</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>260</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10">
+      <c r="E15" s="9"/>
+      <c r="F15" s="8">
         <f>D15*B13</f>
         <v>1300</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="23">
         <v>5</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="17" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="18">
         <v>5</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6">
+      <c r="E19" s="5"/>
+      <c r="F19" s="1">
         <f>D19*B19</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="4" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="17" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>1.7</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10">
+      <c r="E20" s="9"/>
+      <c r="F20" s="8">
         <f>D20*B19</f>
         <v>8.5</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1131,7 +1121,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1179,8 +1169,17 @@
         <v>40</v>
       </c>
     </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31" s="1">
+        <f>H30*1000</f>
+        <v>2880</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1209,7 +1208,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1217,16 +1216,16 @@
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="17">
         <f>E30/E26</f>
         <v>0.64864864864864846</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
     </row>

--- a/1. Power Submodule/Power Budget.xlsx
+++ b/1. Power Submodule/Power Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. UNIVERSITY\University\EEE4113F\EEE4113F_Group22\1. Power Submodule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC92C781-7CD1-444D-B388-7C7F2E81044A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02977C86-4541-4D2A-8ED4-7E66C94E4130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Component</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Idle State</t>
-  </si>
-  <si>
-    <t>https://lastminuteengineers.com/esp32-sleep-modes-power-consumption/#:~:text=Since%20everything%20is%20always%20active,and%20Bluetooth%20are%20used%20simultaneously.</t>
   </si>
   <si>
     <t>Source</t>
@@ -180,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +201,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,10 +372,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -439,8 +445,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,15 +469,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>60961</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>30482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>88600</xdr:rowOff>
+      <xdr:rowOff>86695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -492,8 +500,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60961" y="8542022"/>
-          <a:ext cx="4800599" cy="1155398"/>
+          <a:off x="95251" y="8469632"/>
+          <a:ext cx="4796789" cy="1140158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -770,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +796,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -811,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -843,8 +851,8 @@
         <f t="shared" ref="F4:F6" si="0">C4*B4</f>
         <v>1850</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
+      <c r="H4" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -862,7 +870,7 @@
         <v>1200</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -884,7 +892,7 @@
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -987,12 +995,12 @@
         <v>22</v>
       </c>
       <c r="D15" s="7">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="8">
         <f>D15*B13</f>
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -1052,7 +1060,7 @@
       </c>
       <c r="G19" s="5"/>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1073,100 +1081,100 @@
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <f>F4/1000</f>
         <v>1.85</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <f>B25*12</f>
         <v>22.200000000000003</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1">
         <f>B26</f>
         <v>22.200000000000003</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H26" s="1">
         <f>E26/5</f>
         <v>4.4400000000000004</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <f>F5/1000</f>
         <v>1.2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <f>B29*12</f>
         <v>14.399999999999999</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1">
         <f>B30</f>
         <v>14.399999999999999</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H30" s="1">
         <f>E30/5</f>
         <v>2.88</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1175,63 +1183,63 @@
         <v>2880</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <f>(F3+F6)/1000</f>
         <v>1.048E-2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1">
         <f>B33*12</f>
         <v>0.12575999999999998</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="17">
         <f>E30/E26</f>
         <v>0.64864864864864846</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1245,8 +1253,11 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1" location=":~:text=Power%20Consumption%20of%20Raspberry%20Pi%20Zero%202%20W&amp;text=The%20Raspberry%20Pi%20Zero%20W%20draws%20around%20260mA%20at,370mA%20when%20stressed%20using%20Stressberry." xr:uid="{C5018CB4-6DBE-409E-8FF7-7E96784D740B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>